--- a/experiments/Experiments_GA_Parameters/PLOTS/Epochs10_pop5_vs_exp_loss.xlsx
+++ b/experiments/Experiments_GA_Parameters/PLOTS/Epochs10_pop5_vs_exp_loss.xlsx
@@ -239,9 +239,6 @@
     <t>Lonely_los_exp_loss</t>
   </si>
   <si>
-    <t>Crossover_epochs10_population10</t>
-  </si>
-  <si>
     <t>24_04_2020_01-52-17</t>
   </si>
   <si>
@@ -251,7 +248,10 @@
     <t>24_04_2020_03-52-17</t>
   </si>
   <si>
-    <t>Lonely_los_exp_loss_e5_p10</t>
+    <t>Lonely_los_exp_loss_e10_p5</t>
+  </si>
+  <si>
+    <t>Crossover_epochs10_population5</t>
   </si>
 </sst>
 </file>
@@ -19008,19 +19008,19 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M1" t="s">
         <v>34</v>
       </c>
       <c r="N1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -23548,7 +23548,7 @@
         <v>0.18094545479118801</v>
       </c>
       <c r="S86">
-        <f t="shared" ref="S86:S149" si="3">M86</f>
+        <f t="shared" ref="S86:S144" si="3">M86</f>
         <v>65</v>
       </c>
       <c r="T86">
@@ -23560,7 +23560,7 @@
         <v>0.17866701326146703</v>
       </c>
       <c r="V86">
-        <f t="shared" ref="V86:V149" si="5">AVERAGE(B86,H86,N86)</f>
+        <f t="shared" ref="V86:V144" si="5">AVERAGE(B86,H86,N86)</f>
         <v>4106185</v>
       </c>
     </row>
@@ -24623,7 +24623,7 @@
         <v>82</v>
       </c>
       <c r="T103">
-        <f t="shared" ref="T103:U152" si="6">AVERAGE(D103,J103,P103)</f>
+        <f t="shared" ref="T103:U144" si="6">AVERAGE(D103,J103,P103)</f>
         <v>0.95333333333333325</v>
       </c>
       <c r="U103">
@@ -27227,8 +27227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E404"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A281" sqref="A281:A404"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A279" sqref="A148:A279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29727,7 +29727,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -29744,7 +29744,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -29761,7 +29761,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -29778,7 +29778,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B151">
         <v>3</v>
@@ -29795,7 +29795,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B152">
         <v>4</v>
@@ -29812,7 +29812,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B153">
         <v>5</v>
@@ -29829,7 +29829,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B154">
         <v>6</v>
@@ -29846,7 +29846,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B155">
         <v>7</v>
@@ -29863,7 +29863,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B156">
         <v>8</v>
@@ -29880,7 +29880,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B157">
         <v>9</v>
@@ -29897,7 +29897,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B158">
         <v>10</v>
@@ -29914,7 +29914,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B159">
         <v>11</v>
@@ -29931,7 +29931,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B160">
         <v>12</v>
@@ -29948,7 +29948,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B161">
         <v>13</v>
@@ -29965,7 +29965,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B162">
         <v>14</v>
@@ -29982,7 +29982,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B163">
         <v>15</v>
@@ -29999,7 +29999,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B164">
         <v>16</v>
@@ -30016,7 +30016,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B165">
         <v>17</v>
@@ -30033,7 +30033,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B166">
         <v>18</v>
@@ -30050,7 +30050,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B167">
         <v>19</v>
@@ -30067,7 +30067,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B168">
         <v>20</v>
@@ -30084,7 +30084,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B169">
         <v>21</v>
@@ -30101,7 +30101,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B170">
         <v>22</v>
@@ -30118,7 +30118,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B171">
         <v>23</v>
@@ -30135,7 +30135,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B172">
         <v>24</v>
@@ -30152,7 +30152,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B173">
         <v>25</v>
@@ -30169,7 +30169,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B174">
         <v>26</v>
@@ -30186,7 +30186,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B175">
         <v>27</v>
@@ -30203,7 +30203,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B176">
         <v>28</v>
@@ -30220,7 +30220,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B177">
         <v>29</v>
@@ -30237,7 +30237,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B178">
         <v>30</v>
@@ -30254,7 +30254,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B179">
         <v>31</v>
@@ -30271,7 +30271,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B180">
         <v>32</v>
@@ -30288,7 +30288,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B181">
         <v>33</v>
@@ -30305,7 +30305,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B182">
         <v>34</v>
@@ -30322,7 +30322,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B183">
         <v>35</v>
@@ -30339,7 +30339,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B184">
         <v>36</v>
@@ -30356,7 +30356,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B185">
         <v>37</v>
@@ -30373,7 +30373,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B186">
         <v>38</v>
@@ -30390,7 +30390,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B187">
         <v>39</v>
@@ -30407,7 +30407,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B188">
         <v>40</v>
@@ -30424,7 +30424,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B189">
         <v>41</v>
@@ -30441,7 +30441,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B190">
         <v>42</v>
@@ -30458,7 +30458,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B191">
         <v>43</v>
@@ -30475,7 +30475,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B192">
         <v>44</v>
@@ -30492,7 +30492,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B193">
         <v>45</v>
@@ -30509,7 +30509,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B194">
         <v>46</v>
@@ -30526,7 +30526,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B195">
         <v>47</v>
@@ -30543,7 +30543,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B196">
         <v>48</v>
@@ -30560,7 +30560,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B197">
         <v>49</v>
@@ -30577,7 +30577,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B198">
         <v>50</v>
@@ -30594,7 +30594,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B199">
         <v>51</v>
@@ -30611,7 +30611,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B200">
         <v>52</v>
@@ -30628,7 +30628,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B201">
         <v>53</v>
@@ -30645,7 +30645,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B202">
         <v>54</v>
@@ -30662,7 +30662,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B203">
         <v>55</v>
@@ -30679,7 +30679,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B204">
         <v>56</v>
@@ -30696,7 +30696,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B205">
         <v>57</v>
@@ -30713,7 +30713,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B206">
         <v>58</v>
@@ -30730,7 +30730,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B207">
         <v>59</v>
@@ -30747,7 +30747,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B208">
         <v>60</v>
@@ -30764,7 +30764,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B209">
         <v>61</v>
@@ -30781,7 +30781,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B210">
         <v>62</v>
@@ -30798,7 +30798,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B211">
         <v>63</v>
@@ -30815,7 +30815,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B212">
         <v>64</v>
@@ -30832,7 +30832,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B213">
         <v>65</v>
@@ -30849,7 +30849,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B214">
         <v>66</v>
@@ -30866,7 +30866,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B215">
         <v>67</v>
@@ -30883,7 +30883,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B216">
         <v>68</v>
@@ -30900,7 +30900,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B217">
         <v>69</v>
@@ -30917,7 +30917,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B218">
         <v>70</v>
@@ -30934,7 +30934,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B219">
         <v>71</v>
@@ -30951,7 +30951,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B220">
         <v>72</v>
@@ -30968,7 +30968,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B221">
         <v>73</v>
@@ -30985,7 +30985,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B222">
         <v>74</v>
@@ -31002,7 +31002,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B223">
         <v>75</v>
@@ -31019,7 +31019,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B224">
         <v>76</v>
@@ -31036,7 +31036,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B225">
         <v>77</v>
@@ -31053,7 +31053,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B226">
         <v>78</v>
@@ -31070,7 +31070,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B227">
         <v>79</v>
@@ -31087,7 +31087,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B228">
         <v>80</v>
@@ -31104,7 +31104,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B229">
         <v>81</v>
@@ -31121,7 +31121,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B230">
         <v>82</v>
@@ -31138,7 +31138,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B231">
         <v>83</v>
@@ -31155,7 +31155,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B232">
         <v>84</v>
@@ -31172,7 +31172,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B233">
         <v>85</v>
@@ -31189,7 +31189,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B234">
         <v>86</v>
@@ -31206,7 +31206,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B235">
         <v>87</v>
@@ -31223,7 +31223,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B236">
         <v>88</v>
@@ -31240,7 +31240,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B237">
         <v>89</v>
@@ -31257,7 +31257,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B238">
         <v>90</v>
@@ -31274,7 +31274,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B239">
         <v>91</v>
@@ -31291,7 +31291,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B240">
         <v>92</v>
@@ -31308,7 +31308,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B241">
         <v>93</v>
@@ -31325,7 +31325,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B242">
         <v>94</v>
@@ -31342,7 +31342,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B243">
         <v>95</v>
@@ -31359,7 +31359,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B244">
         <v>96</v>
@@ -31376,7 +31376,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B245">
         <v>97</v>
@@ -31393,7 +31393,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B246">
         <v>98</v>
@@ -31410,7 +31410,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B247">
         <v>99</v>
@@ -31427,7 +31427,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B248">
         <v>100</v>
@@ -31444,7 +31444,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B249">
         <v>101</v>
@@ -31461,7 +31461,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B250">
         <v>102</v>
@@ -31478,7 +31478,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B251">
         <v>103</v>
@@ -31495,7 +31495,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B252">
         <v>104</v>
@@ -31512,7 +31512,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B253">
         <v>105</v>
@@ -31529,7 +31529,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B254">
         <v>106</v>
@@ -31546,7 +31546,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B255">
         <v>107</v>
@@ -31563,7 +31563,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B256">
         <v>108</v>
@@ -31580,7 +31580,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B257">
         <v>109</v>
@@ -31597,7 +31597,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B258">
         <v>110</v>
@@ -31614,7 +31614,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B259">
         <v>111</v>
@@ -31631,7 +31631,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B260">
         <v>112</v>
@@ -31648,7 +31648,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B261">
         <v>113</v>
@@ -31665,7 +31665,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B262">
         <v>114</v>
@@ -31682,7 +31682,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B263">
         <v>115</v>
@@ -31699,7 +31699,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B264">
         <v>116</v>
@@ -31716,7 +31716,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B265">
         <v>117</v>
@@ -31733,7 +31733,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B266">
         <v>118</v>
@@ -31750,7 +31750,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B267">
         <v>119</v>
@@ -31767,7 +31767,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B268">
         <v>120</v>
@@ -31784,7 +31784,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B269">
         <v>121</v>
@@ -31801,7 +31801,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B270">
         <v>122</v>
@@ -31818,7 +31818,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B271">
         <v>123</v>
@@ -31835,7 +31835,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B272">
         <v>124</v>
@@ -31852,7 +31852,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B273">
         <v>125</v>
@@ -31869,7 +31869,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B274">
         <v>126</v>
@@ -31886,7 +31886,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B275">
         <v>127</v>
@@ -31903,7 +31903,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B276">
         <v>128</v>
@@ -31920,7 +31920,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B277">
         <v>129</v>
@@ -31937,7 +31937,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B278">
         <v>130</v>
@@ -31954,7 +31954,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B279">
         <v>131</v>
@@ -31978,7 +31978,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -31995,7 +31995,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -32012,7 +32012,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B283">
         <v>2</v>
@@ -32029,7 +32029,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B284">
         <v>3</v>
@@ -32046,7 +32046,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B285">
         <v>4</v>
@@ -32063,7 +32063,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B286">
         <v>5</v>
@@ -32080,7 +32080,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B287">
         <v>6</v>
@@ -32097,7 +32097,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B288">
         <v>7</v>
@@ -32114,7 +32114,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B289">
         <v>8</v>
@@ -32131,7 +32131,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B290">
         <v>9</v>
@@ -32148,7 +32148,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B291">
         <v>10</v>
@@ -32165,7 +32165,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B292">
         <v>11</v>
@@ -32182,7 +32182,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B293">
         <v>12</v>
@@ -32199,7 +32199,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B294">
         <v>13</v>
@@ -32216,7 +32216,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B295">
         <v>14</v>
@@ -32233,7 +32233,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B296">
         <v>15</v>
@@ -32250,7 +32250,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B297">
         <v>16</v>
@@ -32267,7 +32267,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B298">
         <v>17</v>
@@ -32284,7 +32284,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B299">
         <v>18</v>
@@ -32301,7 +32301,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B300">
         <v>19</v>
@@ -32318,7 +32318,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B301">
         <v>20</v>
@@ -32335,7 +32335,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B302">
         <v>21</v>
@@ -32352,7 +32352,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B303">
         <v>22</v>
@@ -32369,7 +32369,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B304">
         <v>23</v>
@@ -32386,7 +32386,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B305">
         <v>24</v>
@@ -32403,7 +32403,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B306">
         <v>25</v>
@@ -32420,7 +32420,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B307">
         <v>26</v>
@@ -32437,7 +32437,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B308">
         <v>27</v>
@@ -32454,7 +32454,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B309">
         <v>28</v>
@@ -32471,7 +32471,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B310">
         <v>29</v>
@@ -32488,7 +32488,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B311">
         <v>30</v>
@@ -32505,7 +32505,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B312">
         <v>31</v>
@@ -32522,7 +32522,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B313">
         <v>32</v>
@@ -32539,7 +32539,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B314">
         <v>33</v>
@@ -32556,7 +32556,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B315">
         <v>34</v>
@@ -32573,7 +32573,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B316">
         <v>35</v>
@@ -32590,7 +32590,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B317">
         <v>36</v>
@@ -32607,7 +32607,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B318">
         <v>37</v>
@@ -32624,7 +32624,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B319">
         <v>38</v>
@@ -32641,7 +32641,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B320">
         <v>39</v>
@@ -32658,7 +32658,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B321">
         <v>40</v>
@@ -32675,7 +32675,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B322">
         <v>41</v>
@@ -32692,7 +32692,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B323">
         <v>42</v>
@@ -32709,7 +32709,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B324">
         <v>43</v>
@@ -32726,7 +32726,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B325">
         <v>44</v>
@@ -32743,7 +32743,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B326">
         <v>45</v>
@@ -32760,7 +32760,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B327">
         <v>46</v>
@@ -32777,7 +32777,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B328">
         <v>47</v>
@@ -32794,7 +32794,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B329">
         <v>48</v>
@@ -32811,7 +32811,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B330">
         <v>49</v>
@@ -32828,7 +32828,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B331">
         <v>50</v>
@@ -32845,7 +32845,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B332">
         <v>51</v>
@@ -32862,7 +32862,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B333">
         <v>52</v>
@@ -32879,7 +32879,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B334">
         <v>53</v>
@@ -32896,7 +32896,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B335">
         <v>54</v>
@@ -32913,7 +32913,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B336">
         <v>55</v>
@@ -32930,7 +32930,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B337">
         <v>56</v>
@@ -32947,7 +32947,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B338">
         <v>57</v>
@@ -32964,7 +32964,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B339">
         <v>58</v>
@@ -32981,7 +32981,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B340">
         <v>59</v>
@@ -32998,7 +32998,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B341">
         <v>60</v>
@@ -33015,7 +33015,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B342">
         <v>61</v>
@@ -33032,7 +33032,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B343">
         <v>62</v>
@@ -33049,7 +33049,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B344">
         <v>63</v>
@@ -33066,7 +33066,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B345">
         <v>64</v>
@@ -33083,7 +33083,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B346">
         <v>65</v>
@@ -33100,7 +33100,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B347">
         <v>66</v>
@@ -33117,7 +33117,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B348">
         <v>67</v>
@@ -33134,7 +33134,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B349">
         <v>68</v>
@@ -33151,7 +33151,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B350">
         <v>69</v>
@@ -33168,7 +33168,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B351">
         <v>70</v>
@@ -33185,7 +33185,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B352">
         <v>71</v>
@@ -33202,7 +33202,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B353">
         <v>72</v>
@@ -33219,7 +33219,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B354">
         <v>73</v>
@@ -33236,7 +33236,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B355">
         <v>74</v>
@@ -33253,7 +33253,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B356">
         <v>75</v>
@@ -33270,7 +33270,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B357">
         <v>76</v>
@@ -33287,7 +33287,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B358">
         <v>77</v>
@@ -33304,7 +33304,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B359">
         <v>78</v>
@@ -33321,7 +33321,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B360">
         <v>79</v>
@@ -33338,7 +33338,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B361">
         <v>80</v>
@@ -33355,7 +33355,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B362">
         <v>81</v>
@@ -33372,7 +33372,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B363">
         <v>82</v>
@@ -33389,7 +33389,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B364">
         <v>83</v>
@@ -33406,7 +33406,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B365">
         <v>84</v>
@@ -33423,7 +33423,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B366">
         <v>85</v>
@@ -33440,7 +33440,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B367">
         <v>86</v>
@@ -33457,7 +33457,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B368">
         <v>87</v>
@@ -33474,7 +33474,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B369">
         <v>88</v>
@@ -33491,7 +33491,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B370">
         <v>89</v>
@@ -33508,7 +33508,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B371">
         <v>90</v>
@@ -33525,7 +33525,7 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B372">
         <v>91</v>
@@ -33542,7 +33542,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B373">
         <v>92</v>
@@ -33559,7 +33559,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B374">
         <v>93</v>
@@ -33576,7 +33576,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B375">
         <v>94</v>
@@ -33593,7 +33593,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B376">
         <v>95</v>
@@ -33610,7 +33610,7 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B377">
         <v>96</v>
@@ -33627,7 +33627,7 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B378">
         <v>97</v>
@@ -33644,7 +33644,7 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B379">
         <v>98</v>
@@ -33661,7 +33661,7 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B380">
         <v>99</v>
@@ -33678,7 +33678,7 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B381">
         <v>100</v>
@@ -33695,7 +33695,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B382">
         <v>101</v>
@@ -33712,7 +33712,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B383">
         <v>102</v>
@@ -33729,7 +33729,7 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B384">
         <v>103</v>
@@ -33746,7 +33746,7 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B385">
         <v>104</v>
@@ -33763,7 +33763,7 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B386">
         <v>105</v>
@@ -33780,7 +33780,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B387">
         <v>106</v>
@@ -33797,7 +33797,7 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B388">
         <v>107</v>
@@ -33814,7 +33814,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B389">
         <v>108</v>
@@ -33831,7 +33831,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B390">
         <v>109</v>
@@ -33848,7 +33848,7 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B391">
         <v>110</v>
@@ -33865,7 +33865,7 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B392">
         <v>111</v>
@@ -33882,7 +33882,7 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B393">
         <v>112</v>
@@ -33899,7 +33899,7 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B394">
         <v>113</v>
@@ -33916,7 +33916,7 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B395">
         <v>114</v>
@@ -33933,7 +33933,7 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B396">
         <v>115</v>
@@ -33950,7 +33950,7 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B397">
         <v>116</v>
@@ -33967,7 +33967,7 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B398">
         <v>117</v>
@@ -33984,7 +33984,7 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B399">
         <v>118</v>
@@ -34001,7 +34001,7 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B400">
         <v>119</v>
@@ -34018,7 +34018,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B401">
         <v>120</v>
@@ -34035,7 +34035,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B402">
         <v>121</v>
@@ -34052,7 +34052,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B403">
         <v>122</v>
@@ -34069,7 +34069,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B404">
         <v>123</v>
